--- a/tests/data_files/workbooks/test_cell_values.xlsx
+++ b/tests/data_files/workbooks/test_cell_values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/work/Submit4DN/tests/data_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/work/Submit4DN/tests/data_files/workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE91FB9E-2B9B-BB46-B39F-E6FAEB725DB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3438FB-3CCA-F245-BA20-DCD3E59DB536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19180" yWindow="3000" windowWidth="18240" windowHeight="11640" tabRatio="500"/>
+    <workbookView xWindow="2200" yWindow="1780" windowWidth="18240" windowHeight="11640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>BOOLEAN</t>
   </si>
   <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing    </t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>STRDATE</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -67,9 +82,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,11 +493,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,18 +512,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>42615</v>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
